--- a/NHolidayTests/TestCaseCreater-Timeanddate_com.xlsx
+++ b/NHolidayTests/TestCaseCreater-Timeanddate_com.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12630" windowHeight="13450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9100" windowHeight="12670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timeanddate.com TestCase Create" sheetId="2" r:id="rId1"/>
-    <sheet name="Equinox Calc" sheetId="1" r:id="rId2"/>
+    <sheet name="FullYearHols" sheetId="4" r:id="rId2"/>
+    <sheet name="Custom Year" sheetId="3" r:id="rId3"/>
+    <sheet name="Equinox Calc" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="45">
   <si>
     <t>Hours</t>
   </si>
@@ -81,7 +83,85 @@
     <t>Children's Day</t>
   </si>
   <si>
-    <t>Children's Day observed</t>
+    <t>Sports Day</t>
+  </si>
+  <si>
+    <t>Culture Day</t>
+  </si>
+  <si>
+    <t>Labor Thanksgiving Day</t>
+  </si>
+  <si>
+    <t>Emperor's Birthday</t>
+  </si>
+  <si>
+    <t>December 31 Bank Holiday</t>
+  </si>
+  <si>
+    <t>Bank holiday</t>
+  </si>
+  <si>
+    <t>January 2 Bank Holiday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>New Year's Day</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Coming of Age Day</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>National Foundation Day</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Spring Equinox</t>
+  </si>
+  <si>
+    <t>Spring Equinox observed</t>
+  </si>
+  <si>
+    <t>Shōwa Day</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Constitution Memorial Day</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Greenery Day</t>
+  </si>
+  <si>
+    <t>Sea Day</t>
+  </si>
+  <si>
+    <t>Mountain Day</t>
+  </si>
+  <si>
+    <t>Respect for the Aged Day</t>
+  </si>
+  <si>
+    <t>Autumn Equinox</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>January 3 Bank Holiday</t>
   </si>
 </sst>
 </file>
@@ -89,7 +169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -122,7 +202,7 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -411,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -427,39 +507,39 @@
   <sheetData>
     <row r="1" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6">
-        <v>38473</v>
+        <v>37257</v>
       </c>
       <c r="C1">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G1">
         <f>MONTH(B1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1" s="6" t="str">
         <f t="shared" ref="H1:H12" si="0">RIGHT(YEAR(B1),2)</f>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="I1" t="str">
         <f>CONCATENATE("[TestCase(",C1,", ",G1,", ",H1+1-1,", ExpectedResult = true)]")</f>
-        <v>[TestCase(2010, 5, 5, ExpectedResult = true)]</v>
+        <v>[TestCase(1994, 1, 2, ExpectedResult = true)]</v>
       </c>
       <c r="J1" t="str">
         <f>CONCATENATE("[TestCase(",C1,", ",G1,", ",H1+1,", ExpectedResult = false)]")</f>
-        <v>[TestCase(2010, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(1994, 1, 3, ExpectedResult = false)]</v>
       </c>
       <c r="K1" t="str">
         <f>CONCATENATE("[TestCase(",C1,", ",G1,", ",H1-1,", ExpectedResult = false)]")</f>
-        <v>[TestCase(2010, 5, 4, ExpectedResult = false)]</v>
+        <v>[TestCase(1994, 1, 1, ExpectedResult = false)]</v>
       </c>
       <c r="L1">
         <v>0</v>
@@ -468,46 +548,46 @@
         <f>CONCATENATE(K1," 
 ", I1, " 
 ",J1,"")</f>
-        <v>[TestCase(2010, 5, 4, ExpectedResult = false)] 
-[TestCase(2010, 5, 5, ExpectedResult = true)] 
-[TestCase(2010, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(1994, 1, 1, ExpectedResult = false)] 
+[TestCase(1994, 1, 2, ExpectedResult = true)] 
+[TestCase(1994, 1, 3, ExpectedResult = false)]</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6">
-        <v>38473</v>
+        <v>37257</v>
       </c>
       <c r="C2">
-        <v>2011</v>
+        <v>1995</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G13" si="1">MONTH(B2)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" ref="I2:I13" si="2">CONCATENATE("[TestCase(",C2,", ",G2,", ",H2+1-1,", ExpectedResult = true)]")</f>
-        <v>[TestCase(2011, 5, 5, ExpectedResult = true)]</v>
+        <v>[TestCase(1995, 1, 2, ExpectedResult = true)]</v>
       </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J13" si="3">CONCATENATE("[TestCase(",C2,", ",G2,", ",H2+1,", ExpectedResult = false)]")</f>
-        <v>[TestCase(2011, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(1995, 1, 3, ExpectedResult = false)]</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K13" si="4">CONCATENATE("[TestCase(",C2,", ",G2,", ",H2-1,", ExpectedResult = false)]")</f>
-        <v>[TestCase(2011, 5, 4, ExpectedResult = false)]</v>
+        <v>[TestCase(1995, 1, 1, ExpectedResult = false)]</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -516,423 +596,425 @@
         <f t="shared" ref="M2:M13" si="5">CONCATENATE(K2," 
 ", I2, " 
 ",J2)</f>
-        <v>[TestCase(2011, 5, 4, ExpectedResult = false)] 
-[TestCase(2011, 5, 5, ExpectedResult = true)] 
-[TestCase(2011, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(1995, 1, 1, ExpectedResult = false)] 
+[TestCase(1995, 1, 2, ExpectedResult = true)] 
+[TestCase(1995, 1, 3, ExpectedResult = false)]</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6">
-        <v>38473</v>
+        <v>37257</v>
       </c>
       <c r="C3">
-        <v>2012</v>
+        <v>1996</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="2"/>
-        <v>[TestCase(2012, 5, 5, ExpectedResult = true)]</v>
+        <v>[TestCase(1996, 1, 2, ExpectedResult = true)]</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" si="3"/>
-        <v>[TestCase(2012, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(1996, 1, 3, ExpectedResult = false)]</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="4"/>
-        <v>[TestCase(2012, 5, 4, ExpectedResult = false)]</v>
+        <v>[TestCase(1996, 1, 1, ExpectedResult = false)]</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>[TestCase(2012, 5, 4, ExpectedResult = false)] 
-[TestCase(2012, 5, 5, ExpectedResult = true)] 
-[TestCase(2012, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(1996, 1, 1, ExpectedResult = false)] 
+[TestCase(1996, 1, 2, ExpectedResult = true)] 
+[TestCase(1996, 1, 3, ExpectedResult = false)]</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6">
-        <v>38473</v>
+        <v>37257</v>
       </c>
       <c r="C4">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
-        <v>[TestCase(2013, 5, 5, ExpectedResult = true)]</v>
+        <v>[TestCase(1997, 1, 2, ExpectedResult = true)]</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="3"/>
-        <v>[TestCase(2013, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(1997, 1, 3, ExpectedResult = false)]</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="4"/>
-        <v>[TestCase(2013, 5, 4, ExpectedResult = false)]</v>
+        <v>[TestCase(1997, 1, 1, ExpectedResult = false)]</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>[TestCase(2013, 5, 4, ExpectedResult = false)] 
-[TestCase(2013, 5, 5, ExpectedResult = true)] 
-[TestCase(2013, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(1997, 1, 1, ExpectedResult = false)] 
+[TestCase(1997, 1, 2, ExpectedResult = true)] 
+[TestCase(1997, 1, 3, ExpectedResult = false)]</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6">
-        <v>38838</v>
+        <v>37257</v>
       </c>
       <c r="C5">
-        <v>2013</v>
+        <v>1998</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>06</v>
+        <v>02</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
-        <v>[TestCase(2013, 5, 6, ExpectedResult = true)]</v>
+        <v>[TestCase(1998, 1, 2, ExpectedResult = true)]</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
-        <v>[TestCase(2013, 5, 7, ExpectedResult = false)]</v>
+        <v>[TestCase(1998, 1, 3, ExpectedResult = false)]</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="4"/>
-        <v>[TestCase(2013, 5, 5, ExpectedResult = false)]</v>
+        <v>[TestCase(1998, 1, 1, ExpectedResult = false)]</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>[TestCase(2013, 5, 5, ExpectedResult = false)] 
-[TestCase(2013, 5, 6, ExpectedResult = true)] 
-[TestCase(2013, 5, 7, ExpectedResult = false)]</v>
+        <v>[TestCase(1998, 1, 1, ExpectedResult = false)] 
+[TestCase(1998, 1, 2, ExpectedResult = true)] 
+[TestCase(1998, 1, 3, ExpectedResult = false)]</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6">
-        <v>38473</v>
+        <v>37257</v>
       </c>
       <c r="C6">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>05</v>
+        <v>02</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="2"/>
-        <v>[TestCase(2014, 5, 5, ExpectedResult = true)]</v>
+        <v>[TestCase(1999, 1, 2, ExpectedResult = true)]</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v>[TestCase(2014, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(1999, 1, 3, ExpectedResult = false)]</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="4"/>
-        <v>[TestCase(2014, 5, 4, ExpectedResult = false)]</v>
+        <v>[TestCase(1999, 1, 1, ExpectedResult = false)]</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>[TestCase(2014, 5, 4, ExpectedResult = false)] 
-[TestCase(2014, 5, 5, ExpectedResult = true)] 
-[TestCase(2014, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(1999, 1, 1, ExpectedResult = false)] 
+[TestCase(1999, 1, 2, ExpectedResult = true)] 
+[TestCase(1999, 1, 3, ExpectedResult = false)]</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6">
-        <v>38473</v>
+        <v>11658</v>
       </c>
       <c r="C7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>05</v>
+        <v>31</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v>[TestCase(2015, 5, 5, ExpectedResult = true)]</v>
+        <v>[TestCase(2016, 12, 31, ExpectedResult = true)]</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="3"/>
-        <v>[TestCase(2015, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(2016, 12, 32, ExpectedResult = false)]</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="4"/>
-        <v>[TestCase(2015, 5, 4, ExpectedResult = false)]</v>
+        <v>[TestCase(2016, 12, 30, ExpectedResult = false)]</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>[TestCase(2015, 5, 4, ExpectedResult = false)] 
-[TestCase(2015, 5, 5, ExpectedResult = true)] 
-[TestCase(2015, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(2016, 12, 30, ExpectedResult = false)] 
+[TestCase(2016, 12, 31, ExpectedResult = true)] 
+[TestCase(2016, 12, 32, ExpectedResult = false)]</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>38473</v>
+        <v>11658</v>
       </c>
       <c r="C8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>05</v>
+        <v>31</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v>[TestCase(2016, 5, 5, ExpectedResult = true)]</v>
+        <v>[TestCase(2017, 12, 31, ExpectedResult = true)]</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="3"/>
-        <v>[TestCase(2016, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(2017, 12, 32, ExpectedResult = false)]</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="4"/>
-        <v>[TestCase(2016, 5, 4, ExpectedResult = false)]</v>
+        <v>[TestCase(2017, 12, 30, ExpectedResult = false)]</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>[TestCase(2016, 5, 4, ExpectedResult = false)] 
-[TestCase(2016, 5, 5, ExpectedResult = true)] 
-[TestCase(2016, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(2017, 12, 30, ExpectedResult = false)] 
+[TestCase(2017, 12, 31, ExpectedResult = true)] 
+[TestCase(2017, 12, 32, ExpectedResult = false)]</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6">
-        <v>38473</v>
+        <v>11658</v>
       </c>
       <c r="C9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>05</v>
+        <v>31</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
-        <v>[TestCase(2017, 5, 5, ExpectedResult = true)]</v>
+        <v>[TestCase(2018, 12, 31, ExpectedResult = true)]</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="3"/>
-        <v>[TestCase(2017, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(2018, 12, 32, ExpectedResult = false)]</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="4"/>
-        <v>[TestCase(2017, 5, 4, ExpectedResult = false)]</v>
+        <v>[TestCase(2018, 12, 30, ExpectedResult = false)]</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>[TestCase(2017, 5, 4, ExpectedResult = false)] 
-[TestCase(2017, 5, 5, ExpectedResult = true)] 
-[TestCase(2017, 5, 6, ExpectedResult = false)]</v>
+        <f>CONCATENATE(K9," 
+", I9, " 
+",J9)</f>
+        <v>[TestCase(2018, 12, 30, ExpectedResult = false)] 
+[TestCase(2018, 12, 31, ExpectedResult = true)] 
+[TestCase(2018, 12, 32, ExpectedResult = false)]</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6">
-        <v>38473</v>
+        <v>11658</v>
       </c>
       <c r="C10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>05</v>
+        <v>31</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
-        <v>[TestCase(2018, 5, 5, ExpectedResult = true)]</v>
+        <v>[TestCase(2019, 12, 31, ExpectedResult = true)]</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="3"/>
-        <v>[TestCase(2018, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(2019, 12, 32, ExpectedResult = false)]</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="4"/>
-        <v>[TestCase(2018, 5, 4, ExpectedResult = false)]</v>
+        <v>[TestCase(2019, 12, 30, ExpectedResult = false)]</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>[TestCase(2018, 5, 4, ExpectedResult = false)] 
-[TestCase(2018, 5, 5, ExpectedResult = true)] 
-[TestCase(2018, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(2019, 12, 30, ExpectedResult = false)] 
+[TestCase(2019, 12, 31, ExpectedResult = true)] 
+[TestCase(2019, 12, 32, ExpectedResult = false)]</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>11658</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B11" s="6">
-        <v>38473</v>
-      </c>
-      <c r="C11">
-        <v>2019</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="H11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>05</v>
+        <v>31</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
-        <v>[TestCase(2019, 5, 5, ExpectedResult = true)]</v>
+        <v>[TestCase(2020, 12, 31, ExpectedResult = true)]</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="3"/>
-        <v>[TestCase(2019, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(2020, 12, 32, ExpectedResult = false)]</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="4"/>
-        <v>[TestCase(2019, 5, 4, ExpectedResult = false)]</v>
+        <v>[TestCase(2020, 12, 30, ExpectedResult = false)]</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>[TestCase(2019, 5, 4, ExpectedResult = false)] 
-[TestCase(2019, 5, 5, ExpectedResult = true)] 
-[TestCase(2019, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(2020, 12, 30, ExpectedResult = false)] 
+[TestCase(2020, 12, 31, ExpectedResult = true)] 
+[TestCase(2020, 12, 32, ExpectedResult = false)]</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
@@ -940,92 +1022,107 @@
         <v>13</v>
       </c>
       <c r="B12" s="6">
-        <v>38838</v>
+        <v>45261</v>
       </c>
       <c r="C12">
         <v>2019</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>06</v>
+        <v>23</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v>[TestCase(2019, 5, 6, ExpectedResult = true)]</v>
+        <v>[TestCase(2019, 12, 23, ExpectedResult = true)]</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="3"/>
-        <v>[TestCase(2019, 5, 7, ExpectedResult = false)]</v>
+        <v>[TestCase(2019, 12, 24, ExpectedResult = false)]</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="4"/>
-        <v>[TestCase(2019, 5, 5, ExpectedResult = false)]</v>
+        <v>[TestCase(2019, 12, 22, ExpectedResult = false)]</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>[TestCase(2019, 5, 5, ExpectedResult = false)] 
-[TestCase(2019, 5, 6, ExpectedResult = true)] 
-[TestCase(2019, 5, 7, ExpectedResult = false)]</v>
+        <v>[TestCase(2019, 12, 22, ExpectedResult = false)] 
+[TestCase(2019, 12, 23, ExpectedResult = true)] 
+[TestCase(2019, 12, 24, ExpectedResult = false)]</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6">
-        <v>38473</v>
+        <v>45261</v>
       </c>
       <c r="C13">
         <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H13" s="6" t="str">
         <f t="shared" ref="H13" si="6">RIGHT(YEAR(B13),2)</f>
-        <v>05</v>
+        <v>23</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v>[TestCase(2020, 5, 5, ExpectedResult = true)]</v>
+        <f>CONCATENATE("[TestCase(",C13,", ",G13,", ",H13+1-1,", ExpectedResult = true)]")</f>
+        <v>[TestCase(2020, 12, 23, ExpectedResult = true)]</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="3"/>
-        <v>[TestCase(2020, 5, 6, ExpectedResult = false)]</v>
+        <v>[TestCase(2020, 12, 24, ExpectedResult = false)]</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="4"/>
-        <v>[TestCase(2020, 5, 4, ExpectedResult = false)]</v>
+        <v>[TestCase(2020, 12, 22, ExpectedResult = false)]</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>[TestCase(2020, 5, 4, ExpectedResult = false)] 
-[TestCase(2020, 5, 5, ExpectedResult = true)] 
-[TestCase(2020, 5, 6, ExpectedResult = false)]</v>
-      </c>
+        <v>[TestCase(2020, 12, 22, ExpectedResult = false)] 
+[TestCase(2020, 12, 23, ExpectedResult = true)] 
+[TestCase(2020, 12, 24, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1034,6 +1131,1480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="6">
+        <v>36892</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <f>MONTH(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="str">
+        <f>RIGHT(YEAR(A1),2)</f>
+        <v>01</v>
+      </c>
+      <c r="H1" t="str">
+        <f>CONCATENATE("new DateTime(2016, ",E1,", ",F1,"),")</f>
+        <v>new DateTime(2016, 1, 01),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>37257</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E17" si="0">MONTH(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f t="shared" ref="F2:F17" si="1">RIGHT(YEAR(A2),2)</f>
+        <v>02</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H20" si="2">CONCATENATE("new DateTime(2016, ",E2,", ",F2,"),")</f>
+        <v>new DateTime(2016, 1, 02),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>37622</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 1, 03),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>40544</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 1, 11),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>40575</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 2, 11),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>43891</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 3, 20),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>44256</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 3, 21),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>47209</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 4, 29),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>37742</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 5, 03),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>38108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>04</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 5, 04),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>38473</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>05</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 5, 05),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>43282</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 7, 18),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>40756</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 8, 11),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>43709</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 9, 19),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>44805</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 9, 22),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>40452</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 10, 10),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>37926</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 11, 03),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>45231</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:E20" si="3">MONTH(A18)</f>
+        <v>11</v>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f t="shared" ref="F18:F20" si="4">RIGHT(YEAR(A18),2)</f>
+        <v>23</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 11, 23),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>45261</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F19" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 12, 23),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>11658</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F20" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>new DateTime(2016, 12, 31),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>2010</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="b">
+        <f>OR(C1=2,C1=3)</f>
+        <v>0</v>
+      </c>
+      <c r="E1" t="str">
+        <f>CONCATENATE("[TestCase(",A1,", ",B1,", ",C1,", ExpectedResult = ",LOWER(D1),")]")</f>
+        <v>[TestCase(2010, 1, 1, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f>IF(C2=1,A1+1,A1)</f>
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>IF(C1=4,1,C1+1)</f>
+        <v>2</v>
+      </c>
+      <c r="D2" t="b">
+        <f t="shared" ref="D2:D44" si="0">OR(C2=2,C2=3)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE("[TestCase(",A2,", ",B2,", ",C2,", ExpectedResult = ",LOWER(D2),")]")</f>
+        <v>[TestCase(2010, 1, 2, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f t="shared" ref="A3:A44" si="1">IF(C3=1,A2+1,A2)</f>
+        <v>2010</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C44" si="2">IF(C2=4,1,C2+1)</f>
+        <v>3</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <f>CONCATENATE("[TestCase(",A3,", ",B3,", ",C3,", ExpectedResult = ",LOWER(D3),")]")</f>
+        <v>[TestCase(2010, 1, 3, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE("[TestCase(",A4,", ",B4,", ",C4,", ExpectedResult = ",LOWER(D4),")]")</f>
+        <v>[TestCase(2010, 1, 4, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <f>CONCATENATE("[TestCase(",A5,", ",B5,", ",C5,", ExpectedResult = ",LOWER(D5),")]")</f>
+        <v>[TestCase(2011, 1, 1, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <f>CONCATENATE("[TestCase(",A6,", ",B6,", ",C6,", ExpectedResult = ",LOWER(D6),")]")</f>
+        <v>[TestCase(2011, 1, 2, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <f>CONCATENATE("[TestCase(",A7,", ",B7,", ",C7,", ExpectedResult = ",LOWER(D7),")]")</f>
+        <v>[TestCase(2011, 1, 3, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <f>CONCATENATE("[TestCase(",A8,", ",B8,", ",C8,", ExpectedResult = ",LOWER(D8),")]")</f>
+        <v>[TestCase(2011, 1, 4, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f>CONCATENATE("[TestCase(",A9,", ",B9,", ",C9,", ExpectedResult = ",LOWER(D9),")]")</f>
+        <v>[TestCase(2012, 1, 1, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <f>CONCATENATE("[TestCase(",A10,", ",B10,", ",C10,", ExpectedResult = ",LOWER(D10),")]")</f>
+        <v>[TestCase(2012, 1, 2, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <f>CONCATENATE("[TestCase(",A11,", ",B11,", ",C11,", ExpectedResult = ",LOWER(D11),")]")</f>
+        <v>[TestCase(2012, 1, 3, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f>CONCATENATE("[TestCase(",A12,", ",B12,", ",C12,", ExpectedResult = ",LOWER(D12),")]")</f>
+        <v>[TestCase(2012, 1, 4, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f>CONCATENATE("[TestCase(",A13,", ",B13,", ",C13,", ExpectedResult = ",LOWER(D13),")]")</f>
+        <v>[TestCase(2013, 1, 1, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <f>CONCATENATE("[TestCase(",A14,", ",B14,", ",C14,", ExpectedResult = ",LOWER(D14),")]")</f>
+        <v>[TestCase(2013, 1, 2, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <f>CONCATENATE("[TestCase(",A15,", ",B15,", ",C15,", ExpectedResult = ",LOWER(D15),")]")</f>
+        <v>[TestCase(2013, 1, 3, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" ref="E16:E44" si="3">CONCATENATE("[TestCase(",A16,", ",B16,", ",C16,", ExpectedResult = ",LOWER(D16),")]")</f>
+        <v>[TestCase(2013, 1, 4, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2014, 1, 1, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2014, 1, 2, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2014, 1, 3, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2014, 1, 4, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2015, 1, 1, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2015, 1, 2, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2015, 1, 3, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2015, 1, 4, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2016, 1, 1, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2016, 1, 2, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2016, 1, 3, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2016, 1, 4, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2017, 1, 1, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2017, 1, 2, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2017, 1, 3, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2017, 1, 4, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2018, 1, 1, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2018, 1, 2, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2018, 1, 3, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2018, 1, 4, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2019, 1, 1, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2019, 1, 2, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2019, 1, 3, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2019, 1, 4, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2020, 1, 1, ExpectedResult = false)]</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2020, 1, 2, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2020, 1, 3, ExpectedResult = true)]</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="3"/>
+        <v>[TestCase(2020, 1, 4, ExpectedResult = false)]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
